--- a/LichDatPhongHop2.xlsx
+++ b/LichDatPhongHop2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -54,167 +54,811 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-10:00
-Hoàng Minh Thắng, Nguyễn Ngọc Trịnh, 
-</t>
-  </si>
-  <si>
-    <t>09:00-11:00
-Tô Quốc Khánh, Nguyễn Đức Thành, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-10:00
+Hoàng Minh Thắng, Nguyễn Ngọc Trịnh
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Tô Quốc Khánh, Nguyễn Đức Thành
 NUOC,MAYCHIEU</t>
+    </r>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t xml:space="preserve">13:30-16:30
-Nguyễn Ngọc Trịnh, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-16:30
+Nguyễn Ngọc Trịnh
+</t>
+    </r>
   </si>
   <si>
     <t>Chủ Nhật
 25/01</t>
   </si>
   <si>
-    <t xml:space="preserve">09:30-12:00
-Tô Mạnh Cường, Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Mạnh Thắng, 
-</t>
-  </si>
-  <si>
-    <t>09:00-17:00
-Lương Thế Hiếu, Trần Thị Bích Thu, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:30-12:00
+Tô Mạnh Cường, Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Mạnh Thắng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-17:00
+Lương Thế Hiếu, Trần Thị Bích Thu
 NUOC</t>
-  </si>
-  <si>
-    <t>09:00-11:30
-Lê Mậu Đệ, 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Lê Mậu Đệ
 NUOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-10:30
-Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-14:59
-Nguyễn Vũ, Phạm Hải Trung, Lê Mậu Đệ, Huỳnh Xuân Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-16:00
-Trần Thị Thắm, Tô Mạnh Cường, Nguyễn Mạnh Thắng, Thiềm Công Nguyên, Nguyễn Đình Chiến, Nguyễn Đình Tuấn, Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30-15:00
-Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30-17:00
-Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00-17:00
-Phạm Hải Trung, 
-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-10:30
+Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-14:59
+Nguyễn Vũ, Phạm Hải Trung, Lê Mậu Đệ, Huỳnh Xuân Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-16:00
+Trần Thị Thắm, Tô Mạnh Cường, Nguyễn Mạnh Thắng, Thiềm Công Nguyên, Nguyễn Đình Chiến, Nguyễn Đình Tuấn, Bùi Sơn Nam
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:00
+Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:30-17:00
+Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:00
+Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:30-17:00
+Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:00-17:00
+Phạm Hải Trung
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 2
 26/01</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-10:30
-Thiềm Công Nguyên, Nguyễn Mạnh Thắng, Trần Thị Thắm, Nguyễn Đình Chiến, Tô Mạnh Cường, Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-11:30
-Phạm Hải Trung, 
-</t>
-  </si>
-  <si>
-    <t>14:30-16:00
-Nguyễn Tuấn Huy, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-10:30
+Thiềm Công Nguyên, Nguyễn Mạnh Thắng, Trần Thị Thắm, Nguyễn Đình Chiến, Tô Mạnh Cường, Bùi Sơn Nam
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Phạm Hải Trung
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-16:00
+Nguyễn Tuấn Huy
 NUOC,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00-17:00
-Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-16:30
-Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t>14:00-15:00
-Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn, 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+16:00-17:00
+Bùi Sơn Nam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-15:00
+Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn
 NUOC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-16:30
+Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+16:00-17:00
+Bùi Sơn Nam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-15:00
+Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn
+NUOC</t>
+    </r>
   </si>
   <si>
     <t>Thứ 3
 27/01</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-11:00
-Tô Mạnh Cường, 
-</t>
-  </si>
-  <si>
-    <t>10:30-11:30
-Nguyễn Ngọc Thành, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-11:00
+Tô Mạnh Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+10:30-11:30
+Nguyễn Ngọc Thành
 NUOC,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-15:30
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-15:30
-Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường, 
-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 4
 28/01</t>
   </si>
   <si>
-    <t xml:space="preserve">09:00-11:00
-Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-11:00
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t>08:30-09:30
-Tô Mạnh Cường, Bùi Sơn Nam, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-09:30
+Tô Mạnh Cường, Bùi Sơn Nam
 NUOC,HOAQUA,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-16:00
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-16:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 5
 29/01</t>
   </si>
   <si>
-    <t>09:00-11:30
-Thiềm Công Nguyên, 
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Thiềm Công Nguyên
 NUOC,HOAQUA,MAYCHIEU,TRUYENHINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30-15:30
-Tô Mạnh Cường, Trần Thị Thắm, 
-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -222,7 +866,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="100">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -230,8 +874,569 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,36 +1481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,13 +1532,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -430,86 +1605,124 @@
       <c r="A2" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="E4" s="3"/>
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s" s="8">
+      <c r="J5" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="H6" s="3"/>
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s" s="8">
+      <c r="E7" s="3"/>
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s" s="7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -517,67 +1730,112 @@
       <c r="A8" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="8">
-        <v>38</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s" s="8">
-        <v>42</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s" s="8">
-        <v>43</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s" s="8">
-        <v>45</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" t="s" s="8">
-        <v>46</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/LichDatPhongHop2.xlsx
+++ b/LichDatPhongHop2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -54,167 +54,820 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-10:00
-Hoàng Minh Thắng, Nguyễn Ngọc Trịnh, 
-</t>
-  </si>
-  <si>
-    <t>09:00-11:00
-Tô Quốc Khánh, Nguyễn Đức Thành, 
-NUOC,MAYCHIEU</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-10:00
+Hoàng Minh Thắng, Nguyễn Ngọc Trịnh
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Tô Quốc Khánh, Nguyễn Đức Thành
+NUOC,MAYCHIEU
+</t>
+    </r>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t xml:space="preserve">13:30-16:30
-Nguyễn Ngọc Trịnh, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-16:30
+Nguyễn Ngọc Trịnh
+</t>
+    </r>
   </si>
   <si>
     <t>Chủ Nhật
 25/01</t>
   </si>
   <si>
-    <t xml:space="preserve">09:30-12:00
-Tô Mạnh Cường, Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Mạnh Thắng, 
-</t>
-  </si>
-  <si>
-    <t>09:00-17:00
-Lương Thế Hiếu, Trần Thị Bích Thu, 
-NUOC</t>
-  </si>
-  <si>
-    <t>09:00-11:30
-Lê Mậu Đệ, 
-NUOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-10:30
-Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-14:59
-Nguyễn Vũ, Phạm Hải Trung, Lê Mậu Đệ, Huỳnh Xuân Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-16:00
-Trần Thị Thắm, Tô Mạnh Cường, Nguyễn Mạnh Thắng, Thiềm Công Nguyên, Nguyễn Đình Chiến, Nguyễn Đình Tuấn, Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30-15:00
-Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30-17:00
-Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00-17:00
-Phạm Hải Trung, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:30-12:00
+Tô Mạnh Cường, Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Mạnh Thắng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-17:00
+Lương Thế Hiếu, Trần Thị Bích Thu
+NUOC
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Lê Mậu Đệ
+NUOC
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-10:30
+Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-14:59
+Nguyễn Vũ, Phạm Hải Trung, Lê Mậu Đệ, Huỳnh Xuân Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-16:00
+Trần Thị Thắm, Tô Mạnh Cường, Nguyễn Mạnh Thắng, Thiềm Công Nguyên, Nguyễn Đình Chiến, Nguyễn Đình Tuấn, Bùi Sơn Nam
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:00
+Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:30-17:00
+Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:00
+Trần Thị Thắm, Bùi Sơn Nam, Nguyễn Đình Chiến, Nguyễn Mạnh Thắng, Tô Mạnh Cường, Thiềm Công Nguyên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:30-17:00
+Bùi Sơn Nam, Thiềm Công Nguyên, Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+15:00-17:00
+Phạm Hải Trung
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 2
 26/01</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-10:30
-Thiềm Công Nguyên, Nguyễn Mạnh Thắng, Trần Thị Thắm, Nguyễn Đình Chiến, Tô Mạnh Cường, Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-11:30
-Phạm Hải Trung, 
-</t>
-  </si>
-  <si>
-    <t>14:30-16:00
-Nguyễn Tuấn Huy, 
-NUOC,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00-17:00
-Bùi Sơn Nam, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-16:30
-Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t>14:00-15:00
-Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn, 
-NUOC</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-10:30
+Thiềm Công Nguyên, Nguyễn Mạnh Thắng, Trần Thị Thắm, Nguyễn Đình Chiến, Tô Mạnh Cường, Bùi Sơn Nam
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Phạm Hải Trung
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-16:00
+Nguyễn Tuấn Huy
+NUOC,MAYCHIEU
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+16:00-17:00
+Bùi Sơn Nam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-15:00
+Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn
+NUOC
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-16:30
+Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+16:00-17:00
+Bùi Sơn Nam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-15:00
+Bùi Chí Tuệ, Nguyễn Thị Bích, Bùi Anh Tuấn
+NUOC
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 3
 27/01</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30-11:00
-Tô Mạnh Cường, 
-</t>
-  </si>
-  <si>
-    <t>10:30-11:30
-Nguyễn Ngọc Thành, 
-NUOC,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-15:30
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:30-15:30
-Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-11:00
+Tô Mạnh Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+10:30-11:30
+Nguyễn Ngọc Thành
+NUOC,MAYCHIEU
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 4
 28/01</t>
   </si>
   <si>
-    <t xml:space="preserve">09:00-11:00
-Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00-11:00
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
-  </si>
-  <si>
-    <t>08:30-09:30
-Tô Mạnh Cường, Bùi Sơn Nam, 
-NUOC,HOAQUA,MAYCHIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-16:00
-Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:00
+Nguyễn Đình Dũng, Hoàng Xuân Đăng Cường
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+08:30-09:30
+Tô Mạnh Cường, Bùi Sơn Nam
+NUOC,HOAQUA,MAYCHIEU
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:00-16:00
+Hoàng Xuân Đăng Cường, Nguyễn Đình Dũng
+</t>
+    </r>
   </si>
   <si>
     <t>Thứ 5
 29/01</t>
   </si>
   <si>
-    <t>09:00-11:30
-Thiềm Công Nguyên, 
-NUOC,HOAQUA,MAYCHIEU,TRUYENHINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30-15:30
-Tô Mạnh Cường, Trần Thị Thắm, 
-</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+09:00-11:30
+Thiềm Công Nguyên
+NUOC,HOAQUA,MAYCHIEU,TRUYENHINH
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+13:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="19"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+14:30-15:30
+Tô Mạnh Cường, Trần Thị Thắm
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -222,7 +875,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="100">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -230,8 +883,569 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,36 +1492,6 @@
         <fgColor indexed="47"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -347,7 +1531,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -357,13 +1543,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -430,86 +1616,124 @@
       <c r="A2" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="E4" s="3"/>
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s" s="8">
+      <c r="J5" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="H6" s="3"/>
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s" s="8">
+      <c r="E7" s="3"/>
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s" s="7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -517,67 +1741,112 @@
       <c r="A8" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="8">
-        <v>38</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s" s="8">
-        <v>42</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s" s="8">
-        <v>43</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s" s="8">
-        <v>45</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" t="s" s="8">
-        <v>46</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
